--- a/LOOKUPTABLE.xlsx
+++ b/LOOKUPTABLE.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\배포용_BOM 디레이팅 프로그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohan Choi\Desktop\EMT_Derating\EMT_Derating_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888B77D-9A34-4DCF-9F13-6D5E5D5F3DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CAB5AA-CF62-4BA9-B828-8C32E3579A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5D39A059-4D80-4698-A944-9977A2F81BBD}"/>
+    <workbookView xWindow="-16320" yWindow="-6540" windowWidth="16440" windowHeight="28320" xr2:uid="{5D39A059-4D80-4698-A944-9977A2F81BBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="TABLE" sheetId="1" r:id="rId1"/>
-    <sheet name="ROUTING_RULES" sheetId="2" r:id="rId2"/>
+    <sheet name="RESISTOR_PREFIX" sheetId="3" r:id="rId1"/>
+    <sheet name="TABLE" sheetId="1" r:id="rId2"/>
+    <sheet name="ROUTING_RULES" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="206">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +682,48 @@
   <si>
     <t>XC6223H181MR-G</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Rating_Value</t>
+  </si>
+  <si>
+    <t>Rating_Unit</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>WR02X</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>WALSIN</t>
+  </si>
+  <si>
+    <t>WR04X</t>
+  </si>
+  <si>
+    <t>WR06X</t>
+  </si>
+  <si>
+    <t>CRCW0</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>ERJ2G</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
   </si>
 </sst>
 </file>
@@ -774,9 +817,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -814,7 +857,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -920,7 +963,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1062,17 +1105,133 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DFA35F-C35F-402D-A757-AEE3B3DD27ED}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CCCFF0-23C6-49D1-B575-F0E9EDED363D}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
@@ -4379,7 +4538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD55E4DB-5EAD-49B0-BD30-E39360F35C86}">
   <dimension ref="A1:C6"/>
   <sheetViews>

--- a/LOOKUPTABLE.xlsx
+++ b/LOOKUPTABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohan Choi\Desktop\EMT_Derating\EMT_Derating_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CAB5AA-CF62-4BA9-B828-8C32E3579A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9D59C-C900-4792-A6ED-25BB012298F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-6540" windowWidth="16440" windowHeight="28320" xr2:uid="{5D39A059-4D80-4698-A944-9977A2F81BBD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="206">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,46 +684,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WR02X</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>WALSIN</t>
+  </si>
+  <si>
+    <t>WR04X</t>
+  </si>
+  <si>
+    <t>WR06X</t>
+  </si>
+  <si>
     <t>Prefix</t>
-  </si>
-  <si>
-    <t>Rating_Value</t>
-  </si>
-  <si>
-    <t>Rating_Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>WR02X</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>WALSIN</t>
-  </si>
-  <si>
-    <t>WR04X</t>
-  </si>
-  <si>
-    <t>WR06X</t>
-  </si>
-  <si>
-    <t>CRCW0</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
-  </si>
-  <si>
-    <t>ERJ2G</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR25X</t>
+  </si>
+  <si>
+    <t>WR20X</t>
+  </si>
+  <si>
+    <t>WR18</t>
+  </si>
+  <si>
+    <t>WR10X</t>
+  </si>
+  <si>
+    <t>WR12X</t>
+  </si>
+  <si>
+    <t>WR08X</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DFA35F-C35F-402D-A757-AEE3B3DD27ED}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1121,33 +1124,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1155,16 +1158,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1172,16 +1175,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1189,19 +1192,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1209,16 +1212,84 @@
         <v>204</v>
       </c>
       <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8">
         <v>0.1</v>
       </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/LOOKUPTABLE.xlsx
+++ b/LOOKUPTABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohan Choi\Desktop\EMT_Derating\EMT_Derating_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bom_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9D59C-C900-4792-A6ED-25BB012298F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA2CD8-1F78-4105-8CC2-F0847EFE1B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6540" windowWidth="16440" windowHeight="28320" xr2:uid="{5D39A059-4D80-4698-A944-9977A2F81BBD}"/>
+    <workbookView xWindow="-19140" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{5D39A059-4D80-4698-A944-9977A2F81BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="RESISTOR_PREFIX" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="141">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <t>RESISTOR</t>
   </si>
   <si>
-    <t>WR02X000PAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Subcategory</t>
   </si>
   <si>
@@ -185,200 +181,6 @@
   </si>
   <si>
     <t>SDR03EZPJ202</t>
-  </si>
-  <si>
-    <t>WR02X1001FAL</t>
-  </si>
-  <si>
-    <t>WR02X1003FAL</t>
-  </si>
-  <si>
-    <t>WR02X101JAL</t>
-  </si>
-  <si>
-    <t>WR02X102JAL</t>
-  </si>
-  <si>
-    <t>WR02X103JAL</t>
-  </si>
-  <si>
-    <t>WR02X104JAL</t>
-  </si>
-  <si>
-    <t>WR02X105JAL</t>
-  </si>
-  <si>
-    <t>WR02X1103FAL</t>
-  </si>
-  <si>
-    <t>WR02X1201JAL</t>
-  </si>
-  <si>
-    <t>WR02X1202FAL</t>
-  </si>
-  <si>
-    <t>WR02X1302FAL</t>
-  </si>
-  <si>
-    <t>WR02X153JAL</t>
-  </si>
-  <si>
-    <t>WR02X2003FAL</t>
-  </si>
-  <si>
-    <t>WR02X221JAL</t>
-  </si>
-  <si>
-    <t>WR02X222JAL</t>
-  </si>
-  <si>
-    <t>WR02X2400FAL</t>
-  </si>
-  <si>
-    <t>WR02X2492FAL</t>
-  </si>
-  <si>
-    <t>WR02X24R0FAL</t>
-  </si>
-  <si>
-    <t>WR02X301 JAL</t>
-  </si>
-  <si>
-    <t>WR02X302JTL</t>
-  </si>
-  <si>
-    <t>WR02X331JAL</t>
-  </si>
-  <si>
-    <t>WR02X471JAL</t>
-  </si>
-  <si>
-    <t>WR02X472JAL</t>
-  </si>
-  <si>
-    <t>WR02X473JAL</t>
-  </si>
-  <si>
-    <t>WR02X4992FAL</t>
-  </si>
-  <si>
-    <t>WR02X5602FTL</t>
-  </si>
-  <si>
-    <t>WR02X6652FAL</t>
-  </si>
-  <si>
-    <t>WR02X751 JAL</t>
-  </si>
-  <si>
-    <t>WR02X75R0FAL</t>
-  </si>
-  <si>
-    <t>WR04W1204FTL</t>
-  </si>
-  <si>
-    <t>WR04X1003FTL</t>
-  </si>
-  <si>
-    <t>WR04X100JTL</t>
-  </si>
-  <si>
-    <t>WR04X101JTL</t>
-  </si>
-  <si>
-    <t>WR04X102JTL</t>
-  </si>
-  <si>
-    <t>WR04X103JTL</t>
-  </si>
-  <si>
-    <t>WR04X104JTL</t>
-  </si>
-  <si>
-    <t>WR04X105JTL</t>
-  </si>
-  <si>
-    <t>WR04X122JTL</t>
-  </si>
-  <si>
-    <t>WR04X1823FTL</t>
-  </si>
-  <si>
-    <t>WR04X183FTL</t>
-  </si>
-  <si>
-    <t>WR04X203JTL</t>
-  </si>
-  <si>
-    <t>WR04X220JTL</t>
-  </si>
-  <si>
-    <t>WR04X223JTL</t>
-  </si>
-  <si>
-    <t>WR04X3303FTL</t>
-  </si>
-  <si>
-    <t>WR04X333JTL</t>
-  </si>
-  <si>
-    <t>WR04X4022FTL</t>
-  </si>
-  <si>
-    <t>WR04X470JTL</t>
-  </si>
-  <si>
-    <t>WR04X473JTL</t>
-  </si>
-  <si>
-    <t>WR04X474JTL</t>
-  </si>
-  <si>
-    <t>WR04X684JTL</t>
-  </si>
-  <si>
-    <t>WR04X752FTL</t>
-  </si>
-  <si>
-    <t>WR04X75R0FTL</t>
-  </si>
-  <si>
-    <t>WR06X473JTL</t>
-  </si>
-  <si>
-    <t>WR02X1000FAL</t>
-  </si>
-  <si>
-    <t>WR02X1802FAL</t>
-  </si>
-  <si>
-    <t>WR02X2702FAL</t>
-  </si>
-  <si>
-    <t>WR02X37R4FAL</t>
-  </si>
-  <si>
-    <t>WR02X4422FAL</t>
-  </si>
-  <si>
-    <t>WR02X470 JAL</t>
-  </si>
-  <si>
-    <t>WR02X6201FAL</t>
-  </si>
-  <si>
-    <t>WR02X7501FAL</t>
-  </si>
-  <si>
-    <t>WR04X6982FTL</t>
-  </si>
-  <si>
-    <t>WR04X000PTL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WR06X000 PTL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WF25P6R80FTL</t>
@@ -820,9 +622,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -860,7 +662,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -966,7 +768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1108,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,13 +920,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DFA35F-C35F-402D-A757-AEE3B3DD27ED}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1133,24 +937,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1158,16 +962,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>0.75</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1175,16 +979,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1192,16 +996,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1209,16 +1013,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1226,16 +1030,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B7">
         <v>0.125</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1243,16 +1047,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1260,16 +1064,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>6.25E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1277,16 +1081,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>0.05</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1300,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CCCFF0-23C6-49D1-B575-F0E9EDED363D}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1360,7 +1164,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1378,7 +1182,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1396,7 +1200,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1414,7 +1218,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1432,7 +1236,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1450,7 +1254,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1485,10 +1289,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1505,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1525,19 +1329,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E12">
         <v>1.5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1565,13 +1369,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1585,19 +1389,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E15">
         <v>2.6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1606,7 +1410,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1624,7 +1428,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1642,7 +1446,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1660,7 +1464,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1678,7 +1482,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1696,7 +1500,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1714,7 +1518,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1732,7 +1536,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1750,7 +1554,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1768,7 +1572,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -1786,7 +1590,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -1803,10 +1607,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1823,13 +1627,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0.3</v>
@@ -1843,19 +1647,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E29">
         <v>0.76</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,10 +1667,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1883,13 +1687,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0.3</v>
@@ -1903,19 +1707,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E32">
         <v>0.76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -1943,13 +1747,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0.3</v>
@@ -1963,19 +1767,19 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E35">
         <v>0.76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1983,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -2003,13 +1807,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0.3</v>
@@ -2023,19 +1827,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E38">
         <v>0.76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,10 +1847,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -2063,13 +1867,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0.3</v>
@@ -2083,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E41">
         <v>0.76</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,10 +1907,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -2123,13 +1927,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0.3</v>
@@ -2143,10 +1947,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -2163,13 +1967,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0.3</v>
@@ -2184,7 +1988,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2238,7 +2042,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2256,7 +2060,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2274,7 +2078,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2292,7 +2096,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2309,10 +2113,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -2329,13 +2133,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0.1</v>
@@ -2349,10 +2153,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -2369,13 +2173,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2426,7 +2230,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2444,7 +2248,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -2462,7 +2266,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2480,7 +2284,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2498,7 +2302,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -2516,7 +2320,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -2534,7 +2338,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -2552,7 +2356,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -2570,7 +2374,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -2588,7 +2392,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -2606,7 +2410,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2624,7 +2428,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -2642,7 +2446,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2660,7 +2464,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -2678,7 +2482,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -2696,7 +2500,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -2714,7 +2518,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -2732,7 +2536,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -2750,7 +2554,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -2768,7 +2572,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -2786,7 +2590,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -2804,7 +2608,7 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -2822,7 +2626,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
@@ -2840,7 +2644,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -2858,7 +2662,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -2876,7 +2680,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
@@ -2894,7 +2698,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
@@ -2912,7 +2716,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
@@ -2930,7 +2734,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
@@ -2948,7 +2752,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
         <v>16</v>
@@ -2966,7 +2770,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -2984,7 +2788,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -3002,7 +2806,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -3020,7 +2824,7 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
@@ -3038,7 +2842,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
@@ -3056,7 +2860,7 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -3074,7 +2878,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
@@ -3092,7 +2896,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
@@ -3110,7 +2914,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
@@ -3128,16 +2932,16 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3146,16 +2950,16 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99">
         <v>0.4</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,16 +2967,16 @@
         <v>19</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100">
         <v>0.4</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,1426 +2984,321 @@
         <v>19</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>0.05</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" t="s">
-        <v>97</v>
+        <v>23</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.05</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>26</v>
+        <v>0.3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E104">
-        <v>0.05</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>0.05</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>26</v>
+        <v>0.3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E106">
-        <v>0.05</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E107">
-        <v>0.05</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>26</v>
+        <v>0.1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>0.05</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>26</v>
+        <v>0.1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
         <v>50</v>
       </c>
-      <c r="D110" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110">
-        <v>0.05</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>26</v>
+      <c r="F110" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>0.05</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>26</v>
+        <v>0.1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>0.05</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>0.05</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>26</v>
+        <v>0.15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>0.05</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.05</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>26</v>
+        <v>3.1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" t="s">
-        <v>98</v>
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>0.05</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.05</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>26</v>
+        <v>3.7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>0.05</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E119">
-        <v>0.05</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120">
-        <v>0.05</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121">
-        <v>0.05</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s">
-        <v>61</v>
-      </c>
-      <c r="D122" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122">
-        <v>0.05</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" t="s">
-        <v>99</v>
-      </c>
-      <c r="D123" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123">
-        <v>0.05</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124">
-        <v>0.05</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" t="s">
-        <v>63</v>
-      </c>
-      <c r="D125" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125">
-        <v>0.05</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126">
-        <v>0.05</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" t="s">
-        <v>100</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127">
-        <v>0.05</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" t="s">
-        <v>101</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128">
-        <v>0.05</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129">
-        <v>0.05</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130">
-        <v>0.05</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" t="s">
-        <v>66</v>
-      </c>
-      <c r="D131" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131">
-        <v>0.05</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" t="s">
-        <v>67</v>
-      </c>
-      <c r="D132" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132">
-        <v>0.05</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133">
-        <v>0.05</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134">
-        <v>0.05</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135">
-        <v>0.05</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" t="s">
-        <v>70</v>
-      </c>
-      <c r="D136" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136">
-        <v>0.05</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137">
-        <v>0.05</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138">
-        <v>0.05</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139">
-        <v>0.05</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" t="s">
-        <v>73</v>
-      </c>
-      <c r="D140" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" t="s">
-        <v>74</v>
-      </c>
-      <c r="D142" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" t="s">
-        <v>76</v>
-      </c>
-      <c r="D144" t="s">
-        <v>25</v>
-      </c>
-      <c r="E144">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" t="s">
-        <v>77</v>
-      </c>
-      <c r="D145" t="s">
-        <v>25</v>
-      </c>
-      <c r="E145">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" t="s">
-        <v>78</v>
-      </c>
-      <c r="D146" t="s">
-        <v>25</v>
-      </c>
-      <c r="E146">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" t="s">
-        <v>79</v>
-      </c>
-      <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149" t="s">
-        <v>25</v>
-      </c>
-      <c r="E149">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" t="s">
-        <v>82</v>
-      </c>
-      <c r="D150" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151" t="s">
-        <v>25</v>
-      </c>
-      <c r="E151">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" t="s">
-        <v>84</v>
-      </c>
-      <c r="D152" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" t="s">
-        <v>85</v>
-      </c>
-      <c r="D153" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" t="s">
-        <v>87</v>
-      </c>
-      <c r="D155" t="s">
-        <v>25</v>
-      </c>
-      <c r="E155">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157" t="s">
-        <v>25</v>
-      </c>
-      <c r="E157">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" t="s">
-        <v>90</v>
-      </c>
-      <c r="D158" t="s">
-        <v>25</v>
-      </c>
-      <c r="E158">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" t="s">
-        <v>91</v>
-      </c>
-      <c r="D159" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" t="s">
-        <v>92</v>
-      </c>
-      <c r="D160" t="s">
-        <v>25</v>
-      </c>
-      <c r="E160">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" t="s">
-        <v>93</v>
-      </c>
-      <c r="D161" t="s">
-        <v>25</v>
-      </c>
-      <c r="E161">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" t="s">
-        <v>105</v>
-      </c>
-      <c r="D162" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" t="s">
-        <v>94</v>
-      </c>
-      <c r="D163" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" t="s">
-        <v>96</v>
-      </c>
-      <c r="D165" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165">
-        <v>0.1</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" t="s">
-        <v>107</v>
-      </c>
-      <c r="D166" t="s">
-        <v>25</v>
-      </c>
-      <c r="E166">
-        <v>0.1</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D167" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167">
-        <v>60</v>
-      </c>
-      <c r="F167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D168" t="s">
-        <v>27</v>
-      </c>
-      <c r="E168">
-        <v>0.3</v>
-      </c>
-      <c r="F168" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169">
-        <v>60</v>
-      </c>
-      <c r="F169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D170" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170">
-        <v>0.3</v>
-      </c>
-      <c r="F170" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D171" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171">
-        <v>50</v>
-      </c>
-      <c r="F171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D172" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172">
-        <v>0.1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D173" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173">
-        <v>50</v>
-      </c>
-      <c r="F173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D174" t="s">
-        <v>27</v>
-      </c>
-      <c r="E174">
-        <v>0.1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175">
-        <v>50</v>
-      </c>
-      <c r="F175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" t="s">
-        <v>27</v>
-      </c>
-      <c r="E176">
-        <v>0.1</v>
-      </c>
-      <c r="F176" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D177" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177">
-        <v>50</v>
-      </c>
-      <c r="F177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D178" t="s">
-        <v>27</v>
-      </c>
-      <c r="E178">
-        <v>0.15</v>
-      </c>
-      <c r="F178" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D179" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179">
-        <v>40</v>
-      </c>
-      <c r="F179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D180" t="s">
-        <v>27</v>
-      </c>
-      <c r="E180">
-        <v>3.1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D181" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181">
-        <v>20</v>
-      </c>
-      <c r="F181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D182" t="s">
-        <v>27</v>
-      </c>
-      <c r="E182">
-        <v>3.7</v>
-      </c>
-      <c r="F182" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D183" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183">
-        <v>50</v>
-      </c>
-      <c r="F183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D184" t="s">
-        <v>27</v>
-      </c>
-      <c r="E184">
         <v>0.22</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F119" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4626,13 +3325,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4640,10 +3339,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4651,7 +3350,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4662,10 +3361,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4673,10 +3372,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4684,10 +3383,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
